--- a/data/trans_orig/IP2903-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2903-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A12F346-9D3C-4935-95A8-B760E68AD5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A66DEC2-EB72-4B3F-812F-6F70EC65B02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9211C262-DD2C-41ED-AB79-B4F40EE1083D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{08882AB6-F777-4739-A51E-5F320E17293F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="373">
   <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2007 (Tasa respuesta: 96,44%)</t>
   </si>
@@ -71,6 +71,99 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>Solo biberon</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -86,102 +179,183 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>Solo biberon</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
@@ -191,175 +365,82 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -371,166 +452,247 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
   </si>
   <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -542,486 +704,327 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2015 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
     <t>44,88%</t>
   </si>
   <si>
@@ -1097,6 +1100,15 @@
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -1109,13 +1121,28 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1127,34 +1154,10 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C4EAA-A131-4DBF-A894-235C339BBD01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886E118-0CC4-461D-8CD9-F66150C263E8}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1660,206 +1663,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>90993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>97877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>188871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7">
-        <v>90993</v>
+        <v>42677</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7">
-        <v>97877</v>
+        <v>35961</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="N5" s="7">
-        <v>188871</v>
+        <v>78637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>42677</v>
+        <v>73632</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="I6" s="7">
-        <v>35961</v>
+        <v>65750</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="N6" s="7">
-        <v>78637</v>
+        <v>139383</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>73632</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>65750</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>139383</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1877,13 @@
         <v>207302</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>304</v>
@@ -1889,13 +1892,13 @@
         <v>199588</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>615</v>
@@ -1904,219 +1907,219 @@
         <v>406891</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>85553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>84257</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>169810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>128706</v>
+        <v>55633</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>127121</v>
+        <v>47074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>255828</v>
+        <v>102707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>66287</v>
+        <v>72156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7">
-        <v>50715</v>
+        <v>67470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="N11" s="7">
-        <v>117003</v>
+        <v>139626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>80232</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>79981</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>160213</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,255 +2128,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>413</v>
+        <v>323</v>
       </c>
       <c r="D13" s="7">
-        <v>275226</v>
+        <v>213342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="I13" s="7">
-        <v>257817</v>
+        <v>198801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>796</v>
+        <v>618</v>
       </c>
       <c r="N13" s="7">
-        <v>533043</v>
+        <v>412143</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>128706</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>127121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>255828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7">
-        <v>85553</v>
+        <v>66287</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I15" s="7">
-        <v>84257</v>
+        <v>50715</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M15" s="7">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="N15" s="7">
-        <v>169810</v>
+        <v>117003</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>55633</v>
+        <v>80232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>47074</v>
+        <v>79981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="N16" s="7">
-        <v>102707</v>
+        <v>160213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>72156</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>67470</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>139626</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,255 +2385,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="D18" s="7">
-        <v>213342</v>
+        <v>275226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="I18" s="7">
-        <v>198801</v>
+        <v>257817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>618</v>
+        <v>796</v>
       </c>
       <c r="N18" s="7">
-        <v>412143</v>
+        <v>533043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>305253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>309256</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>614508</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>460</v>
+        <v>246</v>
       </c>
       <c r="D20" s="7">
-        <v>305253</v>
+        <v>164597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>459</v>
+        <v>202</v>
       </c>
       <c r="I20" s="7">
-        <v>309256</v>
+        <v>133750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>919</v>
+        <v>448</v>
       </c>
       <c r="N20" s="7">
-        <v>614508</v>
+        <v>298346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>246</v>
+        <v>341</v>
       </c>
       <c r="D21" s="7">
-        <v>164597</v>
+        <v>226021</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="I21" s="7">
-        <v>133750</v>
+        <v>213200</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
-        <v>448</v>
+        <v>662</v>
       </c>
       <c r="N21" s="7">
-        <v>298346</v>
+        <v>439221</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>226021</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>213200</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>439221</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2648,13 @@
         <v>695871</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>982</v>
@@ -2660,13 +2663,13 @@
         <v>656206</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2029</v>
@@ -2675,13 +2678,13 @@
         <v>1352076</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905053DA-A8C4-4C70-9FAE-ED55B109ED54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D304E449-FA0B-4A07-917B-95DEFA05C8C9}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2717,7 +2720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2814,206 +2817,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>88935</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>98740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>187675</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7">
-        <v>88935</v>
+        <v>53739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>98740</v>
+        <v>28883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="N5" s="7">
-        <v>187675</v>
+        <v>82622</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7">
-        <v>53739</v>
+        <v>87437</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="I6" s="7">
-        <v>28883</v>
+        <v>89099</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="N6" s="7">
-        <v>82622</v>
+        <v>176536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>87437</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>89099</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>176536</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3031,13 @@
         <v>230111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>326</v>
@@ -3043,13 +3046,13 @@
         <v>216722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>652</v>
@@ -3058,219 +3061,219 @@
         <v>446833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>100330</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>105065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>205395</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>112425</v>
+        <v>44640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>112868</v>
+        <v>40192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="N10" s="7">
-        <v>225294</v>
+        <v>84832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7">
-        <v>57038</v>
+        <v>93591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="I11" s="7">
-        <v>52149</v>
+        <v>83540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="N11" s="7">
-        <v>109187</v>
+        <v>177131</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>96506</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>87070</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>183575</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,255 +3282,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="D13" s="7">
-        <v>265969</v>
+        <v>238561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="I13" s="7">
-        <v>252087</v>
+        <v>228797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="N13" s="7">
-        <v>518056</v>
+        <v>467358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>112425</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>112868</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>225294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D15" s="7">
-        <v>100330</v>
+        <v>57038</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H15" s="7">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="I15" s="7">
-        <v>105065</v>
+        <v>52149</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M15" s="7">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="N15" s="7">
-        <v>205395</v>
+        <v>109187</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7">
-        <v>44640</v>
+        <v>96506</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7">
-        <v>40192</v>
+        <v>87070</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="N16" s="7">
-        <v>84832</v>
+        <v>183575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>93591</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>83540</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>177131</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,255 +3539,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>238561</v>
+        <v>265969</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="I18" s="7">
-        <v>228797</v>
+        <v>252087</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>651</v>
+        <v>751</v>
       </c>
       <c r="N18" s="7">
-        <v>467358</v>
+        <v>518056</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>301690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>316674</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>618363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>424</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>301690</v>
+        <v>155416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>453</v>
+        <v>174</v>
       </c>
       <c r="I20" s="7">
-        <v>316674</v>
+        <v>121224</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
-        <v>877</v>
+        <v>399</v>
       </c>
       <c r="N20" s="7">
-        <v>618363</v>
+        <v>276641</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="D21" s="7">
-        <v>155416</v>
+        <v>277534</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="H21" s="7">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="I21" s="7">
-        <v>121224</v>
+        <v>259708</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M21" s="7">
-        <v>399</v>
+        <v>778</v>
       </c>
       <c r="N21" s="7">
-        <v>276641</v>
+        <v>537242</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>277534</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>259708</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>537242</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3802,13 @@
         <v>734641</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1005</v>
@@ -3814,13 +3817,13 @@
         <v>697606</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2054</v>
@@ -3829,13 +3832,13 @@
         <v>1432246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3854,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CF1F60-302E-4FE0-BC60-5CE91C6FC46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A5DDB7-432E-4246-A8AD-01DE4FA11932}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3871,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3968,206 +3971,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>84356</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>91900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>176257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>84356</v>
+        <v>56509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7">
-        <v>91900</v>
+        <v>62169</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="N5" s="7">
-        <v>176257</v>
+        <v>118678</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7">
-        <v>56509</v>
+        <v>64093</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I6" s="7">
-        <v>62169</v>
+        <v>38972</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="N6" s="7">
-        <v>118678</v>
+        <v>103065</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>64093</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>38972</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>103065</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4185,13 @@
         <v>204958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>313</v>
@@ -4197,13 +4200,13 @@
         <v>193042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>622</v>
@@ -4212,219 +4215,219 @@
         <v>398000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>125614</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>98153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>223767</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>114664</v>
+        <v>63164</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="I10" s="7">
-        <v>105371</v>
+        <v>70746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="N10" s="7">
-        <v>220035</v>
+        <v>133910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7">
-        <v>78536</v>
+        <v>58627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H11" s="7">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>66143</v>
+        <v>64648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N11" s="7">
-        <v>144679</v>
+        <v>123275</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>77831</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>89958</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>167789</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,255 +4436,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D13" s="7">
-        <v>271031</v>
+        <v>247405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I13" s="7">
-        <v>261472</v>
+        <v>233547</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="N13" s="7">
-        <v>532503</v>
+        <v>480952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>114664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>105371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M14" s="7">
         <v>300</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>220035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D15" s="7">
-        <v>125614</v>
+        <v>78536</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H15" s="7">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="I15" s="7">
-        <v>98153</v>
+        <v>66143</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M15" s="7">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="N15" s="7">
-        <v>223767</v>
+        <v>144679</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D16" s="7">
-        <v>63164</v>
+        <v>77831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>70746</v>
+        <v>89958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="N16" s="7">
-        <v>133910</v>
+        <v>167789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>58627</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>64648</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>123275</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,255 +4693,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D18" s="7">
-        <v>247405</v>
+        <v>271031</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="I18" s="7">
-        <v>233547</v>
+        <v>261472</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="N18" s="7">
-        <v>480952</v>
+        <v>532503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>324634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>295425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>620059</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>456</v>
+        <v>288</v>
       </c>
       <c r="D20" s="7">
-        <v>324634</v>
+        <v>198209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="H20" s="7">
-        <v>443</v>
+        <v>302</v>
       </c>
       <c r="I20" s="7">
-        <v>295425</v>
+        <v>199058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
-        <v>899</v>
+        <v>590</v>
       </c>
       <c r="N20" s="7">
-        <v>620059</v>
+        <v>397267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D21" s="7">
-        <v>198209</v>
+        <v>200551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I21" s="7">
-        <v>199058</v>
+        <v>193578</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="N21" s="7">
-        <v>397267</v>
+        <v>394129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>200551</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>193578</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>394129</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4956,13 @@
         <v>723394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1036</v>
@@ -4968,13 +4971,13 @@
         <v>688060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2070</v>
@@ -4983,13 +4986,13 @@
         <v>1411455</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5008,7 +5011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0455FCE3-DBF3-49DF-B1FE-CAE81880B0B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48DB52B-7EAD-4D38-8507-5902D73D28A6}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5025,7 +5028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5122,59 +5125,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>117938</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>103803</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="7">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>221741</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -5183,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5198,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5213,19 +5216,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5234,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5249,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5264,64 +5267,64 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>117938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="7">
+        <v>199</v>
+      </c>
+      <c r="I7" s="7">
+        <v>103803</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>221741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5339,13 @@
         <v>117938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -5351,13 +5354,13 @@
         <v>103803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>426</v>
@@ -5366,72 +5369,72 @@
         <v>221741</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="H9" s="7">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>351641</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="M9" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>754351</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>361</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5440,49 +5443,49 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5491,94 +5494,94 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>205055</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>198267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>403323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,108 +5590,108 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I13" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N13" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>205055</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>198267</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>403323</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5697,29 +5700,29 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
@@ -5727,19 +5730,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>369</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5748,29 +5751,29 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
@@ -5778,64 +5781,64 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>402710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>351641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>754351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,108 +5847,108 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I18" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N18" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>361</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5954,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5969,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5984,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>371</v>
@@ -5996,7 +5999,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6005,13 +6008,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6020,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6035,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>371</v>
@@ -6047,52 +6050,52 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6110,13 @@
         <v>725704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>943</v>
@@ -6122,13 +6125,13 @@
         <v>653712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>1920</v>
@@ -6137,13 +6140,13 @@
         <v>1379416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2903-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2903-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C40872-3CC3-4897-8A64-27CE5C7DC728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD44F09D-6871-4B29-B0D2-967E7493C4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3390FCF3-219D-486E-B0C1-640488B13C2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FA56C5E-F1CD-4AD8-A57C-90F34F3BBCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="404">
   <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2007 (Tasa respuesta: 96,44%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>38,82%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>37,17%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
@@ -106,28 +106,28 @@
     <t>22,53%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>Pecho</t>
@@ -136,1111 +136,1120 @@
     <t>38,66%</t>
   </si>
   <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2016 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>27,28%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2015 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>25,29%</t>
+    <t>25,22%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
+    <t>26,0%</t>
+  </si>
+  <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>29,91%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>48,15%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>42,94%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B1CD75-9FFC-45E3-ACF1-A4D78E81C97B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A791F278-2545-4600-B953-70B1DFF4F79E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2206,10 +2215,10 @@
         <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>146</v>
@@ -2218,13 +2227,13 @@
         <v>96610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2248,13 @@
         <v>33511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -2254,13 +2263,13 @@
         <v>20919</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -2269,13 +2278,13 @@
         <v>54430</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2299,13 @@
         <v>52536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>84</v>
@@ -2305,13 +2314,13 @@
         <v>56398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>163</v>
@@ -2320,13 +2329,13 @@
         <v>108934</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,7 +2391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2394,13 +2403,13 @@
         <v>56483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -2409,13 +2418,13 @@
         <v>57274</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -2424,13 +2433,13 @@
         <v>113757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2454,13 @@
         <v>46841</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -2460,13 +2469,13 @@
         <v>36497</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>124</v>
@@ -2475,13 +2484,13 @@
         <v>83338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2505,13 @@
         <v>97961</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -2511,13 +2520,13 @@
         <v>94670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>286</v>
@@ -2526,13 +2535,13 @@
         <v>192631</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2609,13 @@
         <v>226021</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>321</v>
@@ -2615,13 +2624,13 @@
         <v>213200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>662</v>
@@ -2630,13 +2639,13 @@
         <v>439222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2660,13 @@
         <v>164597</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>202</v>
@@ -2666,13 +2675,13 @@
         <v>133750</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>448</v>
@@ -2681,13 +2690,13 @@
         <v>298347</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2711,13 @@
         <v>305253</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>459</v>
@@ -2717,13 +2726,13 @@
         <v>309256</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>919</v>
@@ -2732,13 +2741,13 @@
         <v>614509</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2803,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2C518C-7398-4BEF-B02B-5FD1BAD9B7C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2631DEA-FFC7-4C00-B6EB-D550DD6DF20D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2938,13 +2947,13 @@
         <v>47646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -2953,13 +2962,13 @@
         <v>57722</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>159</v>
@@ -2968,13 +2977,13 @@
         <v>105367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2998,13 @@
         <v>36151</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -3004,13 +3013,13 @@
         <v>18625</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -3019,13 +3028,13 @@
         <v>54776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3049,13 @@
         <v>54462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7">
         <v>91</v>
@@ -3055,13 +3064,13 @@
         <v>62210</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>166</v>
@@ -3070,13 +3079,13 @@
         <v>116672</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3153,13 @@
         <v>104659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -3159,13 +3168,13 @@
         <v>87049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>273</v>
@@ -3174,13 +3183,13 @@
         <v>191708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3204,13 @@
         <v>49296</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -3210,13 +3219,13 @@
         <v>42803</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>131</v>
@@ -3249,10 +3258,10 @@
         <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -3261,13 +3270,13 @@
         <v>105141</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -3276,13 +3285,13 @@
         <v>216098</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3359,13 @@
         <v>59108</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -3365,13 +3374,13 @@
         <v>59090</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>170</v>
@@ -3380,13 +3389,13 @@
         <v>118198</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3410,13 @@
         <v>36442</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3416,13 +3425,13 @@
         <v>23814</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3431,13 +3440,13 @@
         <v>60256</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3461,13 @@
         <v>59334</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -3467,13 +3476,13 @@
         <v>74139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -3482,13 +3491,13 @@
         <v>133473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3553,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3556,13 +3565,13 @@
         <v>66121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3571,13 +3580,13 @@
         <v>55848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -3586,13 +3595,13 @@
         <v>121969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3616,13 @@
         <v>33528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -3622,13 +3631,13 @@
         <v>35982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -3637,13 +3646,13 @@
         <v>69510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3667,13 @@
         <v>76938</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -3673,13 +3682,13 @@
         <v>75183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -3688,13 +3697,13 @@
         <v>152121</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3771,13 @@
         <v>277534</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>378</v>
@@ -3777,13 +3786,13 @@
         <v>259708</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
@@ -3792,13 +3801,13 @@
         <v>537242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3822,13 @@
         <v>155416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H21" s="7">
         <v>174</v>
@@ -3828,13 +3837,13 @@
         <v>121224</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>399</v>
@@ -3843,13 +3852,13 @@
         <v>276641</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3873,13 @@
         <v>301690</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>453</v>
@@ -3879,13 +3888,13 @@
         <v>316674</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>877</v>
@@ -3894,13 +3903,13 @@
         <v>618363</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3965,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3976,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9FC7DC-12D8-48E9-9E5B-0EEA1CD5282A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B117CD7-F838-4EA8-8799-0D410D8ED865}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3993,7 +4002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4100,13 +4109,13 @@
         <v>37706</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -4115,13 +4124,13 @@
         <v>23571</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -4130,13 +4139,13 @@
         <v>61277</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4160,13 @@
         <v>33130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -4166,13 +4175,13 @@
         <v>36144</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -4181,13 +4190,13 @@
         <v>69275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4211,13 @@
         <v>45813</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -4217,13 +4226,13 @@
         <v>64383</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
@@ -4232,13 +4241,13 @@
         <v>110196</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4315,13 @@
         <v>65031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -4321,13 +4330,13 @@
         <v>52282</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>183</v>
@@ -4336,13 +4345,13 @@
         <v>117314</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4366,13 @@
         <v>67254</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>102</v>
@@ -4372,13 +4381,13 @@
         <v>64738</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>203</v>
@@ -4387,13 +4396,13 @@
         <v>131992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4417,13 @@
         <v>123751</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -4423,13 +4432,13 @@
         <v>91657</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -4438,13 +4447,13 @@
         <v>215408</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4521,13 @@
         <v>42828</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -4527,13 +4536,13 @@
         <v>57743</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M12" s="7">
         <v>144</v>
@@ -4542,7 +4551,7 @@
         <v>100571</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>335</v>
@@ -4569,7 +4578,7 @@
         <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -4578,13 +4587,13 @@
         <v>58957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>150</v>
@@ -4593,13 +4602,13 @@
         <v>105072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4623,13 @@
         <v>95413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -4629,13 +4638,13 @@
         <v>71582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -4644,13 +4653,13 @@
         <v>166995</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +4715,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4718,13 +4727,13 @@
         <v>54985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -4733,13 +4742,13 @@
         <v>59982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -4748,13 +4757,13 @@
         <v>114967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4778,13 @@
         <v>51710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -4784,13 +4793,13 @@
         <v>39219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -4799,13 +4808,13 @@
         <v>90929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4829,13 @@
         <v>59657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4835,13 +4844,13 @@
         <v>67803</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -4850,13 +4859,13 @@
         <v>127460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4933,13 @@
         <v>200551</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>291</v>
@@ -4939,13 +4948,13 @@
         <v>193578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -4954,13 +4963,13 @@
         <v>394129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>161</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4984,13 @@
         <v>198209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H21" s="7">
         <v>302</v>
@@ -4990,13 +4999,13 @@
         <v>199058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M21" s="7">
         <v>590</v>
@@ -5005,13 +5014,13 @@
         <v>397267</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5035,13 @@
         <v>324634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>443</v>
@@ -5041,13 +5050,13 @@
         <v>295425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>899</v>
@@ -5056,13 +5065,13 @@
         <v>620059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5127,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2903-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2903-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD44F09D-6871-4B29-B0D2-967E7493C4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B799040B-4E83-440A-98B0-58480A4BF6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FA56C5E-F1CD-4AD8-A57C-90F34F3BBCD4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5D036014-46A5-4EFE-AB93-7506474E55BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="397">
   <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2007 (Tasa respuesta: 96,44%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,91 +73,91 @@
     <t>Solo biberon</t>
   </si>
   <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
     <t>38,82%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>37,17%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
   </si>
   <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>Pecho</t>
   </si>
   <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>43,79%</t>
   </si>
   <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,1090 +166,1069 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
     <t>30,8%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2016 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2016 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>31,86%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>29,91%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A791F278-2545-4600-B953-70B1DFF4F79E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B513510-1F4E-4A25-83DA-C4CC7014E4CC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1779,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>41770</v>
+        <v>34033</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1794,10 +1773,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>34033</v>
+        <v>41770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1830,10 +1809,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>24241</v>
+        <v>14598</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1845,10 +1824,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>14598</v>
+        <v>24241</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1881,10 +1860,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7">
-        <v>41600</v>
+        <v>47702</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1896,10 +1875,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I6" s="7">
-        <v>47702</v>
+        <v>41600</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1932,25 +1911,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>147</v>
+      </c>
+      <c r="D7" s="7">
+        <v>96332</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>162</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>107611</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>147</v>
-      </c>
-      <c r="I7" s="7">
-        <v>96332</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1985,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8" s="7">
-        <v>77081</v>
+        <v>75970</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2000,10 +1979,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I8" s="7">
-        <v>75970</v>
+        <v>77081</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2036,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7">
-        <v>60004</v>
+        <v>61736</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2051,10 +2030,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I9" s="7">
-        <v>61736</v>
+        <v>60004</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2087,10 +2066,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D10" s="7">
-        <v>113156</v>
+        <v>110486</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2102,10 +2081,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I10" s="7">
-        <v>110486</v>
+        <v>113156</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2138,25 +2117,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>372</v>
+      </c>
+      <c r="D11" s="7">
+        <v>248192</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>377</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>250241</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>372</v>
-      </c>
-      <c r="I11" s="7">
-        <v>248192</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2191,10 +2170,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>50687</v>
+        <v>45923</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2206,10 +2185,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I12" s="7">
-        <v>45923</v>
+        <v>50687</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2242,10 +2221,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>33511</v>
+        <v>20919</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2257,10 +2236,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>20919</v>
+        <v>33511</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2293,10 +2272,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>52536</v>
+        <v>56398</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2308,10 +2287,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I14" s="7">
-        <v>56398</v>
+        <v>52536</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2344,25 +2323,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>185</v>
+      </c>
+      <c r="D15" s="7">
+        <v>123241</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>205</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>136734</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>185</v>
-      </c>
-      <c r="I15" s="7">
-        <v>123241</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2397,10 +2376,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>56483</v>
+        <v>57274</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2412,10 +2391,10 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>57274</v>
+        <v>56483</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2436,10 +2415,10 @@
         <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,34 +2427,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="7">
         <v>70</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>46841</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>54</v>
-      </c>
-      <c r="I17" s="7">
-        <v>36497</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>124</v>
@@ -2484,13 +2463,13 @@
         <v>83338</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,34 +2478,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>139</v>
+      </c>
+      <c r="D18" s="7">
+        <v>94670</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="7">
         <v>147</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>97961</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>139</v>
-      </c>
-      <c r="I18" s="7">
-        <v>94670</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>286</v>
@@ -2535,13 +2514,13 @@
         <v>192631</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,25 +2529,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>278</v>
+      </c>
+      <c r="D19" s="7">
+        <v>188441</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>303</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>201285</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>278</v>
-      </c>
-      <c r="I19" s="7">
-        <v>188441</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2603,34 +2582,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>321</v>
+      </c>
+      <c r="D20" s="7">
+        <v>213200</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
         <v>341</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>226021</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="7">
-        <v>321</v>
-      </c>
-      <c r="I20" s="7">
-        <v>213200</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>662</v>
@@ -2639,13 +2618,13 @@
         <v>439222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,34 +2633,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>202</v>
+      </c>
+      <c r="D21" s="7">
+        <v>133750</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
         <v>246</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>164597</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="7">
-        <v>202</v>
-      </c>
-      <c r="I21" s="7">
-        <v>133750</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>448</v>
@@ -2690,13 +2669,13 @@
         <v>298347</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,34 +2684,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>459</v>
+      </c>
+      <c r="D22" s="7">
+        <v>309256</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="7">
         <v>460</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>305253</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="7">
-        <v>459</v>
-      </c>
-      <c r="I22" s="7">
-        <v>309256</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>919</v>
@@ -2741,13 +2720,13 @@
         <v>614509</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,25 +2735,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>982</v>
+      </c>
+      <c r="D23" s="7">
+        <v>656206</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1047</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>695871</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>982</v>
-      </c>
-      <c r="I23" s="7">
-        <v>656206</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2803,7 +2782,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2823,7 +2802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2631DEA-FFC7-4C00-B6EB-D550DD6DF20D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E131FF-2DF4-455D-91EB-8335C7976FE3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,7 +2819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2941,34 +2920,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>88</v>
+      </c>
+      <c r="D4" s="7">
+        <v>57722</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="7">
         <v>71</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>47646</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="7">
-        <v>88</v>
-      </c>
-      <c r="I4" s="7">
-        <v>57722</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>159</v>
@@ -2977,13 +2956,13 @@
         <v>105367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,34 +2971,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18625</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="7">
         <v>51</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>36151</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18625</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -3028,13 +3007,13 @@
         <v>54776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,34 +3022,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>91</v>
+      </c>
+      <c r="D6" s="7">
+        <v>62210</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="7">
         <v>75</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>54462</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="7">
-        <v>91</v>
-      </c>
-      <c r="I6" s="7">
-        <v>62210</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>166</v>
@@ -3079,13 +3058,13 @@
         <v>116672</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,25 +3073,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>207</v>
+      </c>
+      <c r="D7" s="7">
+        <v>138557</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>197</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>138259</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>207</v>
-      </c>
-      <c r="I7" s="7">
-        <v>138557</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3147,34 +3126,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>127</v>
+      </c>
+      <c r="D8" s="7">
+        <v>87049</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="7">
         <v>146</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>104659</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="7">
-        <v>127</v>
-      </c>
-      <c r="I8" s="7">
-        <v>87049</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>273</v>
@@ -3183,13 +3162,13 @@
         <v>191708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,34 +3177,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42803</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>49296</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="7">
-        <v>60</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42803</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>131</v>
@@ -3234,13 +3213,13 @@
         <v>92099</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,34 +3228,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>151</v>
+      </c>
+      <c r="D10" s="7">
+        <v>105141</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="7">
         <v>152</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>110957</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="7">
-        <v>151</v>
-      </c>
-      <c r="I10" s="7">
-        <v>105141</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -3285,13 +3264,13 @@
         <v>216098</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,25 +3279,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>338</v>
+      </c>
+      <c r="D11" s="7">
+        <v>234993</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>369</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>264912</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>338</v>
-      </c>
-      <c r="I11" s="7">
-        <v>234993</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3353,34 +3332,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>84</v>
+      </c>
+      <c r="D12" s="7">
+        <v>59090</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="7">
         <v>86</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>59108</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" s="7">
-        <v>84</v>
-      </c>
-      <c r="I12" s="7">
-        <v>59090</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>170</v>
@@ -3389,13 +3368,13 @@
         <v>118198</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,34 +3383,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23814</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="7">
         <v>52</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>36442</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="7">
-        <v>34</v>
-      </c>
-      <c r="I13" s="7">
-        <v>23814</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3440,13 +3419,13 @@
         <v>60256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,34 +3434,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7">
+        <v>74139</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="7">
         <v>85</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>59334</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="7">
-        <v>105</v>
-      </c>
-      <c r="I14" s="7">
-        <v>74139</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -3491,13 +3470,13 @@
         <v>133473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3488,7 @@
         <v>223</v>
       </c>
       <c r="D15" s="7">
-        <v>154884</v>
+        <v>157043</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3524,7 +3503,7 @@
         <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>157043</v>
+        <v>154884</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3559,34 +3538,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7">
+        <v>55848</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
         <v>97</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>66121</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="7">
-        <v>79</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55848</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -3595,13 +3574,13 @@
         <v>121969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,34 +3589,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7">
+        <v>35982</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="7">
         <v>51</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>33528</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="H17" s="7">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35982</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -3646,13 +3625,13 @@
         <v>69510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,34 +3640,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>106</v>
+      </c>
+      <c r="D18" s="7">
+        <v>75183</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" s="7">
         <v>112</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>76938</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="H18" s="7">
-        <v>106</v>
-      </c>
-      <c r="I18" s="7">
-        <v>75183</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -3697,13 +3676,13 @@
         <v>152121</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,25 +3691,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>237</v>
+      </c>
+      <c r="D19" s="7">
+        <v>167013</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>260</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>176586</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>237</v>
-      </c>
-      <c r="I19" s="7">
-        <v>167013</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3765,34 +3744,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>378</v>
+      </c>
+      <c r="D20" s="7">
+        <v>259708</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" s="7">
         <v>400</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>277534</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" s="7">
-        <v>378</v>
-      </c>
-      <c r="I20" s="7">
-        <v>259708</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
@@ -3801,13 +3780,13 @@
         <v>537242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,34 +3795,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>174</v>
+      </c>
+      <c r="D21" s="7">
+        <v>121224</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155416</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H21" s="7">
-        <v>174</v>
-      </c>
-      <c r="I21" s="7">
-        <v>121224</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>399</v>
@@ -3852,13 +3831,13 @@
         <v>276641</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,49 +3846,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>453</v>
+      </c>
+      <c r="D22" s="7">
+        <v>316674</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="7">
         <v>424</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>301690</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="7">
-        <v>453</v>
-      </c>
-      <c r="I22" s="7">
-        <v>316674</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>877</v>
       </c>
       <c r="N22" s="7">
-        <v>618363</v>
+        <v>618364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,25 +3897,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D23" s="7">
+        <v>697606</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1049</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>734641</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1005</v>
-      </c>
-      <c r="I23" s="7">
-        <v>697606</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3951,7 +3930,7 @@
         <v>2054</v>
       </c>
       <c r="N23" s="7">
-        <v>1432246</v>
+        <v>1432247</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3965,7 +3944,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3985,7 +3964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B117CD7-F838-4EA8-8799-0D410D8ED865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADB0969-A935-4587-A5CD-F37E695F6A77}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4002,7 +3981,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4103,34 +4082,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23571</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="7">
         <v>55</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>37706</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="7">
-        <v>40</v>
-      </c>
-      <c r="I4" s="7">
-        <v>23571</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -4139,13 +4118,13 @@
         <v>61277</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,34 +4133,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7">
+        <v>36144</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="7">
         <v>52</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>33130</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="7">
-        <v>60</v>
-      </c>
-      <c r="I5" s="7">
-        <v>36144</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -4190,13 +4169,13 @@
         <v>69275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,34 +4184,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>99</v>
+      </c>
+      <c r="D6" s="7">
+        <v>64383</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" s="7">
         <v>69</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>45813</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="7">
-        <v>99</v>
-      </c>
-      <c r="I6" s="7">
-        <v>64383</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
@@ -4241,13 +4220,13 @@
         <v>110196</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,25 +4235,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>199</v>
+      </c>
+      <c r="D7" s="7">
+        <v>124098</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>176</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>116650</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>199</v>
-      </c>
-      <c r="I7" s="7">
-        <v>124098</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4309,34 +4288,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>83</v>
+      </c>
+      <c r="D8" s="7">
+        <v>52282</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="7">
         <v>100</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>65031</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H8" s="7">
-        <v>83</v>
-      </c>
-      <c r="I8" s="7">
-        <v>52282</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>183</v>
@@ -4345,13 +4324,13 @@
         <v>117314</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,34 +4339,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>102</v>
+      </c>
+      <c r="D9" s="7">
+        <v>64738</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="7">
         <v>101</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>67254</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" s="7">
-        <v>102</v>
-      </c>
-      <c r="I9" s="7">
-        <v>64738</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="M9" s="7">
         <v>203</v>
@@ -4396,13 +4375,13 @@
         <v>131992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,34 +4390,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>144</v>
+      </c>
+      <c r="D10" s="7">
+        <v>91657</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="7">
         <v>176</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>123751</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="7">
-        <v>144</v>
-      </c>
-      <c r="I10" s="7">
-        <v>91657</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -4447,13 +4426,13 @@
         <v>215408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,25 +4441,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>329</v>
+      </c>
+      <c r="D11" s="7">
+        <v>208678</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>377</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>256036</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>329</v>
-      </c>
-      <c r="I11" s="7">
-        <v>208678</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4515,34 +4494,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>84</v>
+      </c>
+      <c r="D12" s="7">
+        <v>57743</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="7">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>42828</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H12" s="7">
-        <v>84</v>
-      </c>
-      <c r="I12" s="7">
-        <v>57743</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>144</v>
@@ -4551,13 +4530,13 @@
         <v>100571</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,34 +4545,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7">
+        <v>58957</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="7">
         <v>66</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>46115</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H13" s="7">
-        <v>84</v>
-      </c>
-      <c r="I13" s="7">
-        <v>58957</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>150</v>
@@ -4602,13 +4581,13 @@
         <v>105072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,34 +4596,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>103</v>
+      </c>
+      <c r="D14" s="7">
+        <v>71582</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="7">
         <v>131</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>95413</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H14" s="7">
-        <v>103</v>
-      </c>
-      <c r="I14" s="7">
-        <v>71582</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -4653,13 +4632,13 @@
         <v>166995</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,25 +4647,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>271</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188282</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>257</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>184356</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>271</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188282</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4721,34 +4700,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>84</v>
+      </c>
+      <c r="D16" s="7">
+        <v>59982</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="7">
         <v>75</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>54985</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>59982</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -4757,13 +4736,13 @@
         <v>114967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,34 +4751,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7">
+        <v>39219</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="7">
         <v>69</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>51710</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H17" s="7">
-        <v>56</v>
-      </c>
-      <c r="I17" s="7">
-        <v>39219</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -4808,13 +4787,13 @@
         <v>90929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,34 +4802,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>97</v>
+      </c>
+      <c r="D18" s="7">
+        <v>67803</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H18" s="7">
         <v>80</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>59657</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H18" s="7">
-        <v>97</v>
-      </c>
-      <c r="I18" s="7">
-        <v>67803</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>177</v>
@@ -4859,13 +4838,13 @@
         <v>127460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,25 +4853,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>237</v>
+      </c>
+      <c r="D19" s="7">
+        <v>167003</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>224</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>166352</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>237</v>
-      </c>
-      <c r="I19" s="7">
-        <v>167003</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4927,34 +4906,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>291</v>
+      </c>
+      <c r="D20" s="7">
+        <v>193578</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" s="7">
         <v>290</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>200551</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H20" s="7">
-        <v>291</v>
-      </c>
-      <c r="I20" s="7">
-        <v>193578</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -4963,13 +4942,13 @@
         <v>394129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,34 +4957,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>302</v>
+      </c>
+      <c r="D21" s="7">
+        <v>199058</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H21" s="7">
         <v>288</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>198209</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H21" s="7">
-        <v>302</v>
-      </c>
-      <c r="I21" s="7">
-        <v>199058</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M21" s="7">
         <v>590</v>
@@ -5014,13 +4993,13 @@
         <v>397267</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,34 +5008,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>443</v>
+      </c>
+      <c r="D22" s="7">
+        <v>295425</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="7">
         <v>456</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>324634</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H22" s="7">
-        <v>443</v>
-      </c>
-      <c r="I22" s="7">
-        <v>295425</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>899</v>
@@ -5065,13 +5044,13 @@
         <v>620059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,25 +5059,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1036</v>
+      </c>
+      <c r="D23" s="7">
+        <v>688060</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1034</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>723394</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1036</v>
-      </c>
-      <c r="I23" s="7">
-        <v>688060</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5127,7 +5106,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
